--- a/matlab/initial_conditions/create_initial_conditions/Defaults_2017_HN.xlsx
+++ b/matlab/initial_conditions/create_initial_conditions/Defaults_2017_HN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions\create_initial_conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED3DCB-0C6D-4575-AB22-79A3D293DD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB57B6-28EC-4C99-9766-FB4FDE42E3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2535" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="540" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_Initial_Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Zone 3</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>WQ_TRC_AGE</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>TEMP</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +654,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I20"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1081,443 +1091,455 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4">
-        <v>6</v>
-      </c>
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>254.55269999999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>254.55269999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>254.55269999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>254.55269999999999</v>
-      </c>
-      <c r="F4" s="4">
-        <v>254.55269999999999</v>
-      </c>
-      <c r="G4" s="4">
-        <v>285.78129999999999</v>
-      </c>
-      <c r="H4" s="4">
-        <v>366.68450000000001</v>
-      </c>
-      <c r="I4" s="4">
-        <v>366.68450000000001</v>
-      </c>
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>233.09610000000001</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>233.09610000000001</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
-        <v>233.09610000000001</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>233.09610000000001</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4">
-        <v>125.089</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
-        <v>125.089</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>125.089</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4">
-        <v>125.089</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>2.0714000000000001</v>
+        <v>254.55269999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>1.8571</v>
+        <v>254.55269999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>2.5565000000000002</v>
+        <v>254.55269999999999</v>
       </c>
       <c r="E6" s="4">
-        <v>1.4286000000000001</v>
+        <v>254.55269999999999</v>
       </c>
       <c r="F6" s="4">
-        <v>3.5118999999999998</v>
+        <v>254.55269999999999</v>
       </c>
       <c r="G6" s="4">
-        <v>1.6131</v>
+        <v>285.78129999999999</v>
       </c>
       <c r="H6" s="4">
-        <v>0.2172</v>
+        <v>366.68450000000001</v>
       </c>
       <c r="I6" s="4">
-        <v>3.75</v>
+        <v>366.68450000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>17.714300000000001</v>
+        <v>233.09610000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>233.09610000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>10.175599999999999</v>
+        <v>233.09610000000001</v>
       </c>
       <c r="E7" s="4">
-        <v>35.714300000000001</v>
+        <v>233.09610000000001</v>
       </c>
       <c r="F7" s="4">
-        <v>43.095199999999998</v>
+        <v>125.089</v>
       </c>
       <c r="G7" s="4">
-        <v>30.619</v>
+        <v>125.089</v>
       </c>
       <c r="H7" s="4">
-        <v>17.104800000000001</v>
+        <v>125.089</v>
       </c>
       <c r="I7" s="4">
-        <v>181.07140000000001</v>
+        <v>125.089</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
-        <v>0.35160000000000002</v>
+        <v>2.0714000000000001</v>
       </c>
       <c r="C8" s="4">
-        <v>0.4</v>
+        <v>1.8571</v>
       </c>
       <c r="D8" s="4">
-        <v>0.5746</v>
+        <v>2.5565000000000002</v>
       </c>
       <c r="E8" s="4">
-        <v>3.2300000000000002E-2</v>
+        <v>1.4286000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>0.76080000000000003</v>
+        <v>3.5118999999999998</v>
       </c>
       <c r="G8" s="4">
-        <v>0.36649999999999999</v>
+        <v>1.6131</v>
       </c>
       <c r="H8" s="4">
-        <v>0.224</v>
+        <v>0.2172</v>
       </c>
       <c r="I8" s="4">
-        <v>1.7702</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4">
-        <v>3.5160000000000004E-2</v>
+        <v>17.714300000000001</v>
       </c>
       <c r="C9" s="4">
-        <v>4.0000000000000008E-2</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>5.7460000000000004E-2</v>
+        <v>10.175599999999999</v>
       </c>
       <c r="E9" s="4">
-        <v>3.2300000000000002E-3</v>
+        <v>35.714300000000001</v>
       </c>
       <c r="F9" s="4">
-        <v>7.6080000000000009E-2</v>
+        <v>43.095199999999998</v>
       </c>
       <c r="G9" s="4">
-        <v>3.6650000000000002E-2</v>
+        <v>30.619</v>
       </c>
       <c r="H9" s="4">
-        <v>2.2400000000000003E-2</v>
+        <v>17.104800000000001</v>
       </c>
       <c r="I9" s="4">
-        <v>0.17702000000000001</v>
+        <v>181.07140000000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
-        <v>104.16666666666667</v>
+        <v>0.35160000000000002</v>
       </c>
       <c r="C10" s="4">
-        <v>208.33333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="D10" s="4">
-        <v>208.33333333333334</v>
+        <v>0.5746</v>
       </c>
       <c r="E10" s="4">
-        <v>208.33333333333334</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>208.33333333333334</v>
+        <v>0.76080000000000003</v>
       </c>
       <c r="G10" s="4">
-        <v>208.33333333333334</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>208.33333333333334</v>
+        <v>0.224</v>
       </c>
       <c r="I10" s="4">
-        <v>416.66666666666669</v>
+        <v>1.7702</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
-        <v>104.16666666666667</v>
+        <v>3.5160000000000004E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>208.33333333333334</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>208.33333333333334</v>
+        <v>5.7460000000000004E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>208.33333333333334</v>
+        <v>3.2300000000000002E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>208.33333333333334</v>
+        <v>7.6080000000000009E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>208.33333333333334</v>
+        <v>3.6650000000000002E-2</v>
       </c>
       <c r="H11" s="4">
-        <v>208.33333333333334</v>
+        <v>2.2400000000000003E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>416.66666666666669</v>
+        <v>0.17702000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4">
-        <v>12.999999999999998</v>
+        <v>104.16666666666667</v>
       </c>
       <c r="C12" s="4">
-        <v>8</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="D12" s="4">
-        <v>12.511950000000001</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="E12" s="4">
-        <v>13.2143</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="F12" s="4">
-        <v>14.940500000000004</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="G12" s="4">
-        <v>9.2205499999999994</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="H12" s="4">
-        <v>13.918149999999999</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="I12" s="4">
-        <v>30.491099999999989</v>
+        <v>416.66666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
+        <v>104.16666666666667</v>
+      </c>
+      <c r="C13" s="4">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="D13" s="4">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="E13" s="4">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="F13" s="4">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="G13" s="4">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="H13" s="4">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="I13" s="4">
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
         <v>12.999999999999998</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>12.511950000000001</v>
       </c>
-      <c r="E13" s="4">
-        <v>21.071400000000001</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E14" s="4">
+        <v>13.2143</v>
+      </c>
+      <c r="F14" s="4">
         <v>14.940500000000004</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>9.2205499999999994</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <v>13.918149999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <v>30.491099999999989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.67596999999999985</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.29289999999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.43217</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.1129</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.53115999999999997</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.11282500000000001</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.1895</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.2804399999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4">
+        <v>12.999999999999998</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12.511950000000001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>21.071400000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>14.940500000000004</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9.2205499999999994</v>
+      </c>
+      <c r="H15" s="4">
+        <v>13.918149999999999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>30.491099999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
         <v>0.67596999999999985</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>0.29289999999999999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>0.43217</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>0.1129</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>0.53115999999999997</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>0.11282500000000001</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>0.1895</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>1.2804399999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9.5416666666666679</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5.1865625</v>
-      </c>
-      <c r="F16" s="4">
-        <v>10.1953125</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6.0057291666666677</v>
-      </c>
-      <c r="H16" s="4">
-        <v>14.599027777777779</v>
-      </c>
-      <c r="I16" s="4">
-        <v>5.4340277777777786</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4">
-        <v>19.083333333333336</v>
+        <v>0.67596999999999985</v>
       </c>
       <c r="C17" s="4">
-        <v>19.083333333333336</v>
+        <v>0.29289999999999999</v>
       </c>
       <c r="D17" s="4">
-        <v>9.5416666666666679</v>
+        <v>0.43217</v>
       </c>
       <c r="E17" s="4">
-        <v>5.1865625</v>
+        <v>0.1129</v>
       </c>
       <c r="F17" s="4">
-        <v>10.1953125</v>
+        <v>0.53115999999999997</v>
       </c>
       <c r="G17" s="4">
-        <v>6.0057291666666677</v>
+        <v>0.11282500000000001</v>
       </c>
       <c r="H17" s="4">
-        <v>14.599027777777779</v>
+        <v>0.1895</v>
       </c>
       <c r="I17" s="4">
-        <v>5.4340277777777786</v>
+        <v>1.2804399999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1546,7 +1568,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>19.083333333333336</v>
@@ -1567,15 +1589,15 @@
         <v>6.0057291666666677</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>14.599027777777779</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>5.4340277777777786</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -1584,21 +1606,79 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <v>9.5416666666666679</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5.1865625</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10.1953125</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6.0057291666666677</v>
+      </c>
+      <c r="H20" s="4">
+        <v>14.599027777777779</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5.4340277777777786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4">
+        <v>19.083333333333336</v>
+      </c>
+      <c r="C21" s="4">
+        <v>19.083333333333336</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9.5416666666666679</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.1865625</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10.1953125</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6.0057291666666677</v>
+      </c>
+      <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="I21" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="I20" s="4">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>0</v>
       </c>
     </row>

--- a/matlab/initial_conditions/create_initial_conditions/Defaults_2017_HN.xlsx
+++ b/matlab/initial_conditions/create_initial_conditions/Defaults_2017_HN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions\create_initial_conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB57B6-28EC-4C99-9766-FB4FDE42E3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577D56A-4D26-41F6-8BED-979F8C5DAEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="540" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4200" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_Initial_Condition" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1104,19 +1104,19 @@
         <v>20</v>
       </c>
       <c r="E3" s="6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G3" s="6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>

--- a/matlab/initial_conditions/create_initial_conditions/Defaults_2017_HN.xlsx
+++ b/matlab/initial_conditions/create_initial_conditions/Defaults_2017_HN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions\create_initial_conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577D56A-4D26-41F6-8BED-979F8C5DAEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F80B42-1C89-41A5-A93C-1380644CBE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4200" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="1590" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_Initial_Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Zone 3</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t>ECLOI</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>ENT</t>
   </si>
 </sst>
 </file>
@@ -641,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +667,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1013,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1682,6 +1695,93 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>35</v>
+      </c>
+      <c r="H24" s="9">
+        <v>32</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
